--- a/Simulation_study/valori_modelli_sim_study.xlsx
+++ b/Simulation_study/valori_modelli_sim_study.xlsx
@@ -3,42 +3,62 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nicole/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nicole/github/outlier_detection/Simulation_study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{070D158D-535A-3743-BDF5-A04334F3DF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3434BB48-D830-CD42-B066-678CB03DD638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14900" xr2:uid="{AD9C4490-FB6A-C74D-B899-8328DC0C32AD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Foglio1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" r:id="rId6" sheetId="4"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
+  <si>
+    <t>MODEL: d=2, cp1,n=90,c=1</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>singletons</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -64,8 +84,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -379,13 +400,716 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67076798-CD38-A645-9D71-2E17654201AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0D5C94-981F-2145-A9EF-E135B1460F8A}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.87203035094833681</v>
+      </c>
+      <c r="B3">
+        <v>6.9526000000000003</v>
+      </c>
+      <c r="C3">
+        <v>14.0992</v>
+      </c>
+      <c r="D3">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.85849472289368156</v>
+      </c>
+      <c r="B4">
+        <v>4.7488000000000001</v>
+      </c>
+      <c r="C4">
+        <v>14.8284</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.85514988455141527</v>
+      </c>
+      <c r="B5">
+        <v>5.9295999999999998</v>
+      </c>
+      <c r="C5">
+        <v>15.6342</v>
+      </c>
+      <c r="D5">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.82796230107561075</v>
+      </c>
+      <c r="B6">
+        <v>6.2294</v>
+      </c>
+      <c r="C6">
+        <v>18.575199999999999</v>
+      </c>
+      <c r="D6">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.87528330985173264</v>
+      </c>
+      <c r="B7">
+        <v>5.6609999999999996</v>
+      </c>
+      <c r="C7">
+        <v>13.2074</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.84769486635177049</v>
+      </c>
+      <c r="B8">
+        <v>5.1726000000000001</v>
+      </c>
+      <c r="C8">
+        <v>16.0078</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.84369936729992068</v>
+      </c>
+      <c r="B9">
+        <v>5.9222000000000001</v>
+      </c>
+      <c r="C9">
+        <v>16.801400000000001</v>
+      </c>
+      <c r="D9">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.79602275891090291</v>
+      </c>
+      <c r="B10">
+        <v>5.8587999999999996</v>
+      </c>
+      <c r="C10">
+        <v>21.677800000000001</v>
+      </c>
+      <c r="D10">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.88898106220119755</v>
+      </c>
+      <c r="B11">
+        <v>6.0271999999999997</v>
+      </c>
+      <c r="C11">
+        <v>11.714600000000001</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0.82838163596237757</v>
+      </c>
+      <c r="B12">
+        <v>5.3807999999999998</v>
+      </c>
+      <c r="C12">
+        <v>18.195399999999999</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0.90051579019154437</v>
+      </c>
+      <c r="B13">
+        <v>6.6563999999999997</v>
+      </c>
+      <c r="C13">
+        <v>10.840999999999999</v>
+      </c>
+      <c r="D13">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0.86155011112996149</v>
+      </c>
+      <c r="B14">
+        <v>6.6516000000000002</v>
+      </c>
+      <c r="C14">
+        <v>14.974600000000001</v>
+      </c>
+      <c r="D14">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.87203035094833681</v>
+      </c>
+      <c r="B2">
+        <v>6.9526000000000003</v>
+      </c>
+      <c r="C2">
+        <v>14.0992</v>
+      </c>
+      <c r="D2">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.85849472289368156</v>
+      </c>
+      <c r="B3">
+        <v>4.7488000000000001</v>
+      </c>
+      <c r="C3">
+        <v>14.8284</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.85514988455141527</v>
+      </c>
+      <c r="B4">
+        <v>5.9295999999999998</v>
+      </c>
+      <c r="C4">
+        <v>15.6342</v>
+      </c>
+      <c r="D4">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.82796230107561075</v>
+      </c>
+      <c r="B5">
+        <v>6.2294</v>
+      </c>
+      <c r="C5">
+        <v>18.575199999999999</v>
+      </c>
+      <c r="D5">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.87528330985173264</v>
+      </c>
+      <c r="B6">
+        <v>5.6609999999999996</v>
+      </c>
+      <c r="C6">
+        <v>13.2074</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.84769486635177049</v>
+      </c>
+      <c r="B7">
+        <v>5.1726000000000001</v>
+      </c>
+      <c r="C7">
+        <v>16.0078</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.84369936729992068</v>
+      </c>
+      <c r="B8">
+        <v>5.9222000000000001</v>
+      </c>
+      <c r="C8">
+        <v>16.801400000000001</v>
+      </c>
+      <c r="D8">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.79602275891090291</v>
+      </c>
+      <c r="B9">
+        <v>5.8587999999999996</v>
+      </c>
+      <c r="C9">
+        <v>21.677800000000001</v>
+      </c>
+      <c r="D9">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.88898106220119755</v>
+      </c>
+      <c r="B10">
+        <v>6.0271999999999997</v>
+      </c>
+      <c r="C10">
+        <v>11.714600000000001</v>
+      </c>
+      <c r="D10">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.82838163596237757</v>
+      </c>
+      <c r="B11">
+        <v>5.3807999999999998</v>
+      </c>
+      <c r="C11">
+        <v>18.195399999999999</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0.90051579019154437</v>
+      </c>
+      <c r="B12">
+        <v>6.6563999999999997</v>
+      </c>
+      <c r="C12">
+        <v>10.840999999999999</v>
+      </c>
+      <c r="D12">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0.86155011112996149</v>
+      </c>
+      <c r="B13">
+        <v>6.6516000000000002</v>
+      </c>
+      <c r="C13">
+        <v>14.974600000000001</v>
+      </c>
+      <c r="D13">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.8720303509483368</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6.9526</v>
+      </c>
+      <c r="C2" t="n">
+        <v>14.0992</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.8584947228936816</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4.7488</v>
+      </c>
+      <c r="C3" t="n">
+        <v>14.8284</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.8551498845514153</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5.9296</v>
+      </c>
+      <c r="C4" t="n">
+        <v>15.6342</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.8279623010756108</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6.2294</v>
+      </c>
+      <c r="C5" t="n">
+        <v>18.5752</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.8752833098517326</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5.661</v>
+      </c>
+      <c r="C6" t="n">
+        <v>13.2074</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.8476948663517705</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5.1726</v>
+      </c>
+      <c r="C7" t="n">
+        <v>16.0078</v>
+      </c>
+      <c r="D7" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.8436993672999207</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5.9222</v>
+      </c>
+      <c r="C8" t="n">
+        <v>16.8014</v>
+      </c>
+      <c r="D8" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.7960227589109029</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5.8588</v>
+      </c>
+      <c r="C9" t="n">
+        <v>21.6778</v>
+      </c>
+      <c r="D9" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.8889810622011975</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6.0272</v>
+      </c>
+      <c r="C10" t="n">
+        <v>11.7146</v>
+      </c>
+      <c r="D10" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.8283816359623776</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5.3808</v>
+      </c>
+      <c r="C11" t="n">
+        <v>18.1954</v>
+      </c>
+      <c r="D11" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.9005157901915444</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6.6564</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10.841</v>
+      </c>
+      <c r="D12" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.8615501111299615</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6.6516</v>
+      </c>
+      <c r="C13" t="n">
+        <v>14.9746</v>
+      </c>
+      <c r="D13" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>